--- a/hsa/2_memory/result/data-big.xlsx
+++ b/hsa/2_memory/result/data-big.xlsx
@@ -444,34 +444,34 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>26.821505</v>
+        <v>25.945539</v>
       </c>
       <c r="D3">
-        <v>36.004526</v>
+        <v>36.069733</v>
       </c>
       <c r="E3">
-        <v>40.474504</v>
+        <v>40.283211</v>
       </c>
       <c r="F3">
-        <v>42.592166</v>
+        <v>42.803071</v>
       </c>
       <c r="G3">
-        <v>44.750013</v>
+        <v>44.929871</v>
       </c>
       <c r="H3">
-        <v>48.284344</v>
+        <v>48.40069</v>
       </c>
       <c r="I3">
-        <v>961.27978</v>
+        <v>45.222307</v>
       </c>
       <c r="J3">
-        <v>1821.61804</v>
+        <v>45.184094</v>
       </c>
       <c r="K3">
-        <v>4046.054051</v>
+        <v>45.154422</v>
       </c>
       <c r="L3">
-        <v>7302.726762</v>
+        <v>45.158995</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -584,34 +584,34 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>5.983667</v>
+        <v>6.042957</v>
       </c>
       <c r="D8">
-        <v>8.614945000000001</v>
+        <v>8.599640000000001</v>
       </c>
       <c r="E8">
-        <v>10.646537</v>
+        <v>10.402053</v>
       </c>
       <c r="F8">
-        <v>11.243435</v>
+        <v>11.867319</v>
       </c>
       <c r="G8">
-        <v>12.065858</v>
+        <v>12.655001</v>
       </c>
       <c r="H8">
-        <v>13.307383</v>
+        <v>12.971142</v>
       </c>
       <c r="I8">
-        <v>280.918931</v>
+        <v>13.075969</v>
       </c>
       <c r="J8">
-        <v>465.678859</v>
+        <v>13.465569</v>
       </c>
       <c r="K8">
-        <v>522.054484</v>
+        <v>13.214897</v>
       </c>
       <c r="L8">
-        <v>580.170799</v>
+        <v>13.484385</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -724,34 +724,34 @@
         <v>2</v>
       </c>
       <c r="C13">
-        <v>6.056197</v>
+        <v>6.072265</v>
       </c>
       <c r="D13">
-        <v>8.991134000000001</v>
+        <v>8.841113999999999</v>
       </c>
       <c r="E13">
-        <v>10.996979</v>
+        <v>10.579234</v>
       </c>
       <c r="F13">
-        <v>11.561752</v>
+        <v>11.785123</v>
       </c>
       <c r="G13">
-        <v>12.805879</v>
+        <v>12.726844</v>
       </c>
       <c r="H13">
-        <v>13.22922</v>
+        <v>13.291776</v>
       </c>
       <c r="I13">
-        <v>182.167243</v>
+        <v>13.368646</v>
       </c>
       <c r="J13">
-        <v>237.669601</v>
+        <v>13.681402</v>
       </c>
       <c r="K13">
-        <v>276.807784</v>
+        <v>13.620134</v>
       </c>
       <c r="L13">
-        <v>421.964992</v>
+        <v>13.581459</v>
       </c>
     </row>
     <row r="14" spans="1:12">
